--- a/data/regras.xlsx
+++ b/data/regras.xlsx
@@ -1,43 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Facil_acesso</t>
+  </si>
+  <si>
+    <t>Regra</t>
+  </si>
+  <si>
+    <t>Padrão</t>
+  </si>
+  <si>
+    <t>Autista</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +81,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +145,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +186,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +274,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +330,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +339,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +348,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +356,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +388,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +401,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,60 +424,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.005" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Perfil</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Recurso(s)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Facil_acesso</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Regra</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Juncao</t>
-        </is>
-      </c>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Padrão</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4">
         <v>999</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/regras.xlsx
+++ b/data/regras.xlsx
@@ -1,78 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Perfil</t>
-  </si>
-  <si>
-    <t>Recursos</t>
-  </si>
-  <si>
-    <t>Facil_acesso</t>
-  </si>
-  <si>
-    <t>Regra</t>
-  </si>
-  <si>
-    <t>Padrão</t>
-  </si>
-  <si>
-    <t>Autista</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,62 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -145,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -186,71 +182,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,53 +268,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -330,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -339,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -348,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,10 +351,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -388,7 +383,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -401,12 +396,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -424,72 +420,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="16.005" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Perfil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Recursos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Facil_acesso</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Regra</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Padrão</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>999</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Autismo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Idoso</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>999</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Deficiência física</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Déficit de atenção</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lactante</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Prova ampliada, Prova superampliada</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lactante</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>999</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Idoso</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Prova ampliada, Prova superampliada</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/regras.xlsx
+++ b/data/regras.xlsx
@@ -479,7 +479,11 @@
       <c r="E2" t="n">
         <v>999</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -495,7 +499,9 @@
       <c r="E3" t="n">
         <v>6</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -531,7 +537,11 @@
       <c r="E5" t="n">
         <v>40</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -547,7 +557,9 @@
       <c r="E6" t="n">
         <v>6</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -567,7 +579,9 @@
       <c r="E7" t="n">
         <v>20</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -603,7 +617,9 @@
       <c r="E9" t="n">
         <v>20</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/regras.xlsx
+++ b/data/regras.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,10 +479,8 @@
       <c r="E2" t="n">
         <v>999</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +535,8 @@
       <c r="E5" t="n">
         <v>40</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">

--- a/data/regras.xlsx
+++ b/data/regras.xlsx
@@ -1,37 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.ribeiro\ensalamento_modular\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$21</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Facil_acesso</t>
+  </si>
+  <si>
+    <t>Regra</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Padrão</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Autismo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Idoso</t>
+  </si>
+  <si>
+    <t>Deficiência física</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Déficit de atenção</t>
+  </si>
+  <si>
+    <t>Lactante</t>
+  </si>
+  <si>
+    <t>Prova ampliada, Prova superampliada</t>
+  </si>
+  <si>
+    <t>Cegueira</t>
+  </si>
+  <si>
+    <t>Dislexia</t>
+  </si>
+  <si>
+    <t>Mesa para cadeira de rodas</t>
+  </si>
+  <si>
+    <t>Tempo adicional, Auxílio para transcrição</t>
+  </si>
+  <si>
+    <t>Outra deficiência ou condição especial</t>
+  </si>
+  <si>
+    <t>Baixa visão</t>
+  </si>
+  <si>
+    <t>Cartão resposta ampliado, Prova ampliada</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Correção diferenciada</t>
+  </si>
+  <si>
+    <t>Cartão resposta ampliado, Prova superampliada</t>
+  </si>
+  <si>
+    <t>Prova ampliada</t>
+  </si>
+  <si>
+    <t>Sem recurso</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +146,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,204 +470,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Perfil</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Recursos</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Facil_acesso</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Regra</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Grupo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Padrão</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
         <v>999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Autismo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Idoso</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
         <v>999</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Deficiência física</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
         <v>40</v>
       </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Déficit de atenção</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lactante</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Prova ampliada, Prova superampliada</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>20</v>
       </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lactante</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>999</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Idoso</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Prova ampliada, Prova superampliada</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="F9" t="n">
-        <v>2</v>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F21">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/regras.xlsx
+++ b/data/regras.xlsx
@@ -14,15 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$21</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -45,15 +42,12 @@
     <t>Padrão</t>
   </si>
   <si>
-    <t>4</t>
+    <t>Sem recurso</t>
   </si>
   <si>
     <t>Autismo</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Idoso</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>FA</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Déficit de atenção</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>Cartão resposta ampliado, Prova ampliada</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Correção diferenciada</t>
   </si>
   <si>
@@ -108,7 +96,13 @@
     <t>Prova ampliada</t>
   </si>
   <si>
-    <t>Sem recurso</t>
+    <t>Calculadora, Correção diferenciada, Discalculia, Tempo adicional</t>
+  </si>
+  <si>
+    <t>Auxílio para transcrição</t>
+  </si>
+  <si>
+    <t>Autismo, Dislexia</t>
   </si>
 </sst>
 </file>
@@ -471,18 +465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
@@ -516,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>999</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -533,13 +526,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -547,13 +540,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>999</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -561,19 +554,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -581,41 +574,41 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -626,10 +619,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -640,78 +633,78 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
       <c r="E13">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -722,33 +715,33 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>999</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
+      <c r="F16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -756,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -773,72 +766,98 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F21">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>